--- a/DOC/模拟计算.xlsx
+++ b/DOC/模拟计算.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21500" windowHeight="10480" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10485" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="人物属性" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="计算表" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="149">
   <si>
     <t>编号</t>
   </si>
@@ -539,18 +539,20 @@
   <si>
     <t>装备等级</t>
   </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -619,6 +621,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -700,26 +708,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,49 +729,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="7" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="9" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="9" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="8">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="8" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -790,25 +783,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="差" xfId="7"/>
-    <cellStyle name="计算" xfId="8"/>
-    <cellStyle name="适中" xfId="9"/>
+    <cellStyle name="计算" xfId="3"/>
+    <cellStyle name="适中" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -858,71 +848,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1107,6 +1097,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1141,15 +1132,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1304,22 +1294,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
   </cols>
@@ -1371,15 +1361,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT26"/>
   <sheetViews>
     <sheetView topLeftCell="AI1" workbookViewId="0">
@@ -1388,9 +1378,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:46">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
+    <row r="1" spans="1:46" ht="14.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="16" t="s">
         <v>26</v>
       </c>
@@ -1459,638 +1449,638 @@
       <c r="AT1" s="17"/>
     </row>
     <row r="2" spans="1:46">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
     </row>
     <row r="3" spans="1:46">
       <c r="A3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20" t="s">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20" t="s">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20" t="s">
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20" t="s">
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20" t="s">
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AI3" s="20" t="s">
+      <c r="AI3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20" t="s">
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AM3" s="20" t="s">
+      <c r="AM3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20" t="s">
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AQ3" s="20" t="s">
+      <c r="AQ3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20" t="s">
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:46">
       <c r="A4" s="17"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="W4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20" t="s">
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20" t="s">
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20" t="s">
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AI4" s="20" t="s">
+      <c r="AI4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20" t="s">
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
     </row>
     <row r="5" spans="1:46">
       <c r="A5" s="17"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20" t="s">
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20" t="s">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20" t="s">
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="W5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20" t="s">
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AA5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20" t="s">
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AE5" s="20" t="s">
+      <c r="AE5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20" t="s">
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AI5" s="20" t="s">
+      <c r="AI5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20" t="s">
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AM5" s="20" t="s">
+      <c r="AM5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20" t="s">
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AQ5" s="20" t="s">
+      <c r="AQ5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="20" t="s">
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20" t="s">
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20" t="s">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="W6" s="20" t="s">
+      <c r="W6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20" t="s">
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AA6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20" t="s">
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20" t="s">
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AI6" s="20" t="s">
+      <c r="AI6" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20" t="s">
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AM6" s="20" t="s">
+      <c r="AM6" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20" t="s">
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AQ6" s="20" t="s">
+      <c r="AQ6" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20" t="s">
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:46">
       <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
     </row>
     <row r="8" spans="1:46">
       <c r="A8" s="17"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
     </row>
     <row r="10" spans="1:46">
       <c r="A10" s="17"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-    </row>
-    <row r="11" spans="1:46">
+      <c r="B10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+    </row>
+    <row r="11" spans="1:46" ht="14.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -2136,9 +2126,9 @@
       <c r="AS11" s="16"/>
       <c r="AT11" s="17"/>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" ht="14.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -2184,9 +2174,9 @@
       <c r="AS12" s="16"/>
       <c r="AT12" s="17"/>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" ht="14.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -2232,9 +2222,9 @@
       <c r="AS13" s="16"/>
       <c r="AT13" s="17"/>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" ht="14.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -2280,9 +2270,9 @@
       <c r="AS14" s="16"/>
       <c r="AT14" s="17"/>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" ht="14.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -2328,9 +2318,9 @@
       <c r="AS15" s="16"/>
       <c r="AT15" s="17"/>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" ht="14.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -2376,9 +2366,9 @@
       <c r="AS16" s="16"/>
       <c r="AT16" s="17"/>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:46" ht="14.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -2424,9 +2414,9 @@
       <c r="AS17" s="16"/>
       <c r="AT17" s="17"/>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:46" ht="14.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -2474,399 +2464,390 @@
     </row>
     <row r="19" spans="1:46">
       <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="20"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
     </row>
     <row r="20" spans="1:46">
       <c r="A20" s="17"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="15"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
     </row>
     <row r="21" spans="1:46">
       <c r="A21" s="17"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
     </row>
     <row r="22" spans="1:46">
       <c r="A22" s="17"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
     </row>
     <row r="23" spans="1:46">
       <c r="A23" s="18"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="20"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
     </row>
     <row r="24" spans="1:46">
       <c r="A24" s="17"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="15"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="15"/>
-      <c r="AR24" s="15"/>
-      <c r="AS24" s="15"/>
-      <c r="AT24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
     </row>
     <row r="25" spans="1:46">
       <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-      <c r="AT25" s="20"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
     </row>
     <row r="26" spans="1:46">
       <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="C11:F11"/>
@@ -2880,15 +2861,15 @@
     <mergeCell ref="AI11:AL11"/>
     <mergeCell ref="AM11:AP11"/>
     <mergeCell ref="AQ11:AT11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="AE12:AH12"/>
-    <mergeCell ref="AI12:AL12"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AM12:AP12"/>
     <mergeCell ref="AQ12:AT12"/>
     <mergeCell ref="C13:F13"/>
@@ -2902,15 +2883,15 @@
     <mergeCell ref="AI13:AL13"/>
     <mergeCell ref="AM13:AP13"/>
     <mergeCell ref="AQ13:AT13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="AI12:AL12"/>
     <mergeCell ref="AM14:AP14"/>
     <mergeCell ref="AQ14:AT14"/>
     <mergeCell ref="C15:F15"/>
@@ -2924,6 +2905,21 @@
     <mergeCell ref="AI15:AL15"/>
     <mergeCell ref="AM15:AP15"/>
     <mergeCell ref="AQ15:AT15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="AE17:AH17"/>
+    <mergeCell ref="AI17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AQ17:AT17"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="K16:N16"/>
@@ -2933,19 +2929,14 @@
     <mergeCell ref="AA16:AD16"/>
     <mergeCell ref="AE16:AH16"/>
     <mergeCell ref="AI16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AQ16:AT16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="AE17:AH17"/>
-    <mergeCell ref="AI17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AQ17:AT17"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AQ18:AT18"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="K18:N18"/>
@@ -2955,36 +2946,35 @@
     <mergeCell ref="AA18:AD18"/>
     <mergeCell ref="AE18:AH18"/>
     <mergeCell ref="AI18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AQ18:AT18"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AQ16:AT16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:V17"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>105</v>
       </c>
@@ -2998,7 +2988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3008,26 +2998,26 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">INDEX(装备品质!B1:G1,1,INT(RAND()*(6-0)))</f>
-        <v>绿色</v>
+        <v>蓝色</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -3115,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3132,13 +3122,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="10">
         <v>12</v>
       </c>
       <c r="G5" s="10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3178,7 +3168,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="10">
         <v>8</v>
@@ -3197,32 +3187,32 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>70</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
         <v>70</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
         <v>70</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -3239,7 +3229,7 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10">
-        <f t="shared" ref="F11:F15" si="0">F3+G3*F$10</f>
+        <f>F3+G3*F$10</f>
         <v>186</v>
       </c>
       <c r="G11" s="10"/>
@@ -3254,13 +3244,13 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9">
-        <f t="shared" ref="D12:D15" si="1">D4+D$10*E4</f>
+        <f>D4+D$10*E4</f>
         <v>215</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10">
         <f>F4+G4*F$10</f>
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="G12" s="10"/>
     </row>
@@ -3269,18 +3259,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ref="B13:B15" si="3">B5+B$10*C5</f>
+        <f>B5+B$10*C5</f>
         <v>150</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="9">
         <f>D5+D$10*E5</f>
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10">
         <f>F5+G5*F$10</f>
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="G13" s="10"/>
     </row>
@@ -3315,7 +3305,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="9">
         <f>D7+D$10*E7</f>
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10">
@@ -3325,15 +3315,15 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
@@ -3341,12 +3331,12 @@
       </c>
       <c r="B17" s="1">
         <f>(B3+B10*C3)*2.01+30</f>
-        <v>331.5</v>
+        <v>331.49999999999994</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9">
         <f>(D3+D10*E3)*1.71+30</f>
-        <v>228.36</v>
+        <v>228.35999999999999</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10">
@@ -3366,7 +3356,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="9">
         <f>(D3+D10*E3)*0.57+40</f>
-        <v>106.12</v>
+        <v>106.11999999999999</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10">
@@ -3391,7 +3381,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="10">
         <f>(F4+F10*G4)*2.5+80</f>
-        <v>282.5</v>
+        <v>370</v>
       </c>
       <c r="G19" s="10"/>
     </row>
@@ -3406,12 +3396,12 @@
       <c r="C20" s="1"/>
       <c r="D20" s="9">
         <f>(D5+D10*E5)*4.5+100</f>
-        <v>469</v>
+        <v>626.5</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10">
         <f>(F5+F10*G5)*6+100</f>
-        <v>1432</v>
+        <v>1222</v>
       </c>
       <c r="G20" s="10"/>
     </row>
@@ -3420,18 +3410,18 @@
         <v>114</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B21" si="12">(B3+B10*C3)*0.4+(B5+B10*C5)*0.3+(B4+B10*C4)*0.7+(B6+B10*C6)*0.2</f>
+        <f>(B3+B10*C3)*0.4+(B5+B10*C5)*0.3+(B4+B10*C4)*0.7+(B6+B10*C6)*0.2</f>
         <v>240</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="9">
         <f>(D3+D10*E3)*0.4+(D5+D10*E5)*0.3+(D4+D10*E4)*0.7+(D6+D10*E6)*0.2</f>
-        <v>258.9</v>
+        <v>269.39999999999998</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10">
         <f>(F3+F10*G3)*0.4+(F5+F10*G5)*0.3+(F4+F10*G4)*0.7+(F6+F10*G6)*0.2</f>
-        <v>220.3</v>
+        <v>234.29999999999998</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -3440,18 +3430,18 @@
         <v>115</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ref="B22" si="13">(B3+B10*C3)*0.1+(B7+B10*C7)*0.7+(B5+B10*C5)*0.1+(B6+B10*C6)*0.1</f>
+        <f>(B3+B10*C3)*0.1+(B7+B10*C7)*0.7+(B5+B10*C5)*0.1+(B6+B10*C6)*0.1</f>
         <v>150</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9">
         <f>(D3+D10*E3)*0.1+(D7+D10*E7)*0.7+(D5+D10*E5)*0.1+(D6+D10*E6)*0.1</f>
-        <v>143.5</v>
+        <v>122.5</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10">
         <f>(F3+F10*G3)*0.1+(F7+F10*G7)*0.7+(F5+F10*G5)*0.1+(F6+F10*G6)*0.1</f>
-        <v>155.7</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="G22" s="10"/>
     </row>
@@ -3471,7 +3461,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="10">
         <f>(F6+F10*G6)*1.4</f>
-        <v>158.2</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="G23" s="10"/>
     </row>
@@ -3480,13 +3470,13 @@
         <v>117</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ref="B24" si="14">(B7+B10*C7)*1</f>
+        <f>(B7+B10*C7)*1</f>
         <v>150</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9">
         <f>(D7+D10*E7)*1</f>
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10">
@@ -3496,43 +3486,43 @@
       <c r="G24" s="10"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="3">
-        <f ca="1" t="shared" ref="B28" si="15">INT(RAND()*(347-267))+267</f>
-        <v>286</v>
+        <f ca="1">INT(RAND()*(347-267))+267</f>
+        <v>331</v>
       </c>
       <c r="C28" s="3">
-        <f ca="1" t="shared" ref="C28" si="16">INT(RAND()*(300-231))+231</f>
-        <v>243</v>
+        <f ca="1">INT(RAND()*(300-231))+231</f>
+        <v>263</v>
       </c>
       <c r="D28" s="4">
         <f ca="1">INT(RAND()*(347-267))+267</f>
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E28" s="4">
         <f ca="1">INT(RAND()*(300-231))+231</f>
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F28" s="5">
         <f ca="1">INT(RAND()*(347-267))+267</f>
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G28" s="5">
         <f ca="1">INT(RAND()*(300-231))+231</f>
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3540,62 +3530,62 @@
         <v>119</v>
       </c>
       <c r="B29" s="3">
-        <f ca="1" t="shared" ref="B29" si="17">INT(RAND()*(54-42))+42</f>
-        <v>42</v>
+        <f ca="1">INT(RAND()*(54-42))+42</f>
+        <v>43</v>
       </c>
       <c r="C29" s="3">
-        <f ca="1" t="shared" ref="C29" si="18">INT(RAND()*(102-78))+78</f>
-        <v>89</v>
+        <f ca="1">INT(RAND()*(102-78))+78</f>
+        <v>99</v>
       </c>
       <c r="D29" s="4">
-        <f ca="1" t="shared" ref="D29:D33" si="19">INT(RAND()*(54-42))+42</f>
-        <v>49</v>
+        <f ca="1">INT(RAND()*(54-42))+42</f>
+        <v>45</v>
       </c>
       <c r="E29" s="4">
         <f ca="1">INT(RAND()*(102-78))+78</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F29" s="5">
-        <f ca="1" t="shared" ref="F29:F33" si="20">INT(RAND()*(54-42))+42</f>
-        <v>43</v>
+        <f ca="1">INT(RAND()*(54-42))+42</f>
+        <v>51</v>
       </c>
       <c r="G29" s="5">
         <f ca="1">INT(RAND()*(102-78))+78</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>120</v>
       </c>
       <c r="B30" s="3">
-        <f ca="1" t="shared" ref="B30" si="21">INT(RAND()*(102-93))+93</f>
-        <v>98</v>
+        <f ca="1">INT(RAND()*(102-93))+93</f>
+        <v>93</v>
       </c>
       <c r="D30" s="4">
         <f ca="1">INT(RAND()*(102-93))+93</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F30" s="5">
         <f ca="1">INT(RAND()*(102-93))+93</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>121</v>
       </c>
       <c r="B31" s="3">
-        <f ca="1" t="shared" ref="B31" si="22">INT(RAND()*(156-120))+120</f>
-        <v>150</v>
+        <f ca="1">INT(RAND()*(156-120))+120</f>
+        <v>121</v>
       </c>
       <c r="D31" s="4">
         <f ca="1">INT(RAND()*(156-120))+120</f>
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F31" s="5">
         <f ca="1">INT(RAND()*(156-120))+120</f>
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3603,28 +3593,28 @@
         <v>122</v>
       </c>
       <c r="B32" s="3">
-        <f ca="1" t="shared" ref="B32" si="23">INT(RAND()*(54-42))+42</f>
-        <v>52</v>
+        <f ca="1">INT(RAND()*(54-42))+42</f>
+        <v>46</v>
       </c>
       <c r="C32" s="3">
-        <f ca="1" t="shared" ref="C32" si="24">INT(RAND()*(204-157))+157</f>
-        <v>198</v>
+        <f ca="1">INT(RAND()*(204-157))+157</f>
+        <v>171</v>
       </c>
       <c r="D32" s="4">
         <f ca="1">INT(RAND()*(54-42))+42</f>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E32" s="4">
         <f ca="1">INT(RAND()*(204-157))+157</f>
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="F32" s="5">
         <f ca="1">INT(RAND()*(54-42))+42</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G32" s="5">
         <f ca="1">INT(RAND()*(204-157))+157</f>
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3632,263 +3622,280 @@
         <v>123</v>
       </c>
       <c r="B33" s="3">
-        <f ca="1" t="shared" ref="B33" si="25">INT(RAND()*(54-42))+42</f>
-        <v>48</v>
+        <f ca="1">INT(RAND()*(54-42))+42</f>
+        <v>46</v>
       </c>
       <c r="C33" s="3">
-        <f ca="1" t="shared" ref="C33" si="26">INT(RAND()*(35-27))+27</f>
-        <v>27</v>
+        <f ca="1">INT(RAND()*(35-27))+27</f>
+        <v>30</v>
       </c>
       <c r="D33" s="4">
         <f ca="1">INT(RAND()*(54-42))+42</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E33" s="4">
         <f ca="1">INT(RAND()*(35-27))+27</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F33" s="5">
         <f ca="1">INT(RAND()*(54-42))+42</f>
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G33" s="5">
         <f ca="1">INT(RAND()*(35-27))+27</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B39" s="3">
         <v>80</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D39" s="4">
         <v>80</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F39" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B40" s="3">
         <f ca="1">INT((B17+B28)/3+B18+C28+RAND()*((B3+C3*B10)*5%-0))</f>
-        <v>585</v>
-      </c>
-      <c r="C37" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="4">
-        <f ca="1">(D21+D36*1+D30)+INT(RAND()*((D18+E28)*9%-(D18+E28)*3%)+(D18+E28)*3%)+D36*1</f>
-        <v>546.9</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D40" s="4">
+        <f ca="1">(D21+D39*1+D30)+INT(RAND()*((D18+E28)*9%-(D18+E28)*3%)+(D18+E28)*3%)+D39*1</f>
+        <v>544.4</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F40" s="5">
         <f ca="1">((F17+F28)/3+F18+G28+RAND()*((F3+G3*F10)*5%-0))</f>
-        <v>709.704874700076</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+        <v>670.81773928266125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="3">
-        <f ca="1">INT(((B17+B36*12+B28)/3+B18+C28+RAND()*((B3+C3*B10)*5%-0))*(150%+B36*1%))</f>
-        <v>2088</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B41" s="3">
+        <f ca="1">INT(((B17+B39*4+B28)/3+B18+C28+RAND()*((B3+C3*B10)*5%-0))*(120%+B39*0.5%))</f>
+        <v>1164</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="4">
-        <f ca="1">((D21+D36*4+D30)+INT(RAND()*((D18+E28)*9%-(D18+E28)*3%)+(D18+E28)*3%)+D36*1.3)*(D36*1%+150%)</f>
-        <v>1858.17</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D41" s="4">
+        <f ca="1">((D21+D39*2+D30)+INT(RAND()*((D18+E28)*9%-(D18+E28)*3%)+(D18+E28)*3%)+D39*1.3)*(D39*0.5%+120%)</f>
+        <v>1051.8399999999999</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="5">
-        <f ca="1">((F17+F36*12+F28)/3+F18+G28+RAND()*((F3+G3*F10)*5%-0))*(150%+F36*1%)</f>
-        <v>2363.35919239381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="F41" s="5">
+        <f ca="1">((F17+F39*4+F28)/3+F18+G28+RAND()*((F3+G3*F10)*5%-0))*(120%+F39*0.5%)</f>
+        <v>1256.5567007077498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="3">
-        <f ca="1">INT(((B17+B28)/3+B18+C28+B36*4+RAND()*((B3+C3*B10)*5%-0))*(180%))</f>
-        <v>1639</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B42" s="3">
+        <f ca="1">INT(((B17+B28)/3+B18+C28+B39+RAND()*((B3+C3*B10)*5%-0))*(70%))+INT(((B17+B28)/3+B18+C28+B39+RAND()*((B3+C3*B10)*5%-0))*(80%))+INT(((B17+B28)/3+B18+C28+B39+RAND()*((B3+C3*B10)*5%-0))*(100%))</f>
+        <v>1746</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="4">
-        <f ca="1">((D21+D36*3+D30)+INT(RAND()*((D18+E28)*9%-(D18+E28)*3%)+(D18+E28)*3%)+D36*1.3)*(200%)</f>
-        <v>1449.8</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D42" s="4">
+        <f ca="1">((D21+D39*3+D30)+INT(RAND()*((D18+E28)*9%-(D18+E28)*3%)+(D18+E28)*3%)+D39*1.3)*(200%)</f>
+        <v>1458.8</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="5">
-        <f ca="1">((F17+F28)/3+F18+G28+F36*4+RAND()*((F3+G3*F10)*5%-0))*(180%)</f>
-        <v>1847.91923713302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="14" t="s">
+      <c r="F42" s="5">
+        <f ca="1">((F17+F28)/3+F18+G28+F39+RAND()*((F3+G3*F10)*5%-0))*(70%)+((F17+F28)/3+F18+G28+F39+RAND()*((F3+G3*F10)*5%-0))*(80%)+((F17+F28)/3+F18+G28+F39+RAND()*((F3+G3*F10)*5%-0))*(100%)</f>
+        <v>1889.4344286809478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="3">
-        <f ca="1" t="shared" ref="B42" si="27">INT((B24+C33)/3)+B23+B29+B31+B32+B33+INT(RAND()*((B6+C6*B10)*5%-0))</f>
-        <v>580</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B45" s="3">
+        <f ca="1">INT((B24+C33)/3)+B23+B29+B31+B32+B33+INT(RAND()*((B6+C6*B10)*5%-0))</f>
+        <v>544</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D45" s="4">
         <f ca="1">INT((D24+E33)/3)+D23+D29+D31+D32+D33+INT(RAND()*((D6+E6*D10)*5%-0))</f>
-        <v>634.2</v>
-      </c>
-      <c r="E42" s="4" t="s">
+        <v>625.20000000000005</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F45" s="5">
         <f ca="1">INT((F24+G33)/3)+F23+F29+F31+F32+F33+INT(RAND()*((F6+G6*F10)*5%-0))</f>
-        <v>510.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+        <v>489.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="3">
-        <f ca="1" t="shared" ref="B43" si="28">(B21+B30)+INT(RAND()*((B24+B35*1)*9%-(B24+B35*1)*3%)+(B24+B35*1)*3%)</f>
-        <v>345</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B46" s="3">
+        <f ca="1">(B21+B30)+INT(RAND()*((B24+B38*1)*9%-(B24+B38*1)*3%)+(B24+B38*1)*3%)</f>
+        <v>340</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="4">
-        <f ca="1">(D21+D30)+INT(RAND()*((D24+D35*1)*9%-(D24+D35*1)*3%)+(D24+D35*1)*3%)</f>
-        <v>363.9</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="D46" s="4">
+        <f ca="1">(D21+D30)+INT(RAND()*((D24+D38*1)*9%-(D24+D38*1)*3%)+(D24+D38*1)*3%)</f>
+        <v>373.4</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="5">
-        <f ca="1">(F21+F30)+INT(RAND()*((F24+F35*1)*9%-(F24+F35*1)*3%)+(F24+F35*1)*3%)</f>
-        <v>320.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="F46" s="5">
+        <f ca="1">(F21+F30)+INT(RAND()*((F24+F38*1)*9%-(F24+F38*1)*3%)+(F24+F38*1)*3%)</f>
+        <v>341.29999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="3">
-        <f ca="1">INDEX(B37:B39,ROUNDUP(RAND()*(3-0),0))-D42</f>
-        <v>1004.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="3">
-        <f ca="1">INDEX(B37:B39,ROUNDUP(RAND()*(3-0),0))-F42</f>
-        <v>1128.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="3">
-        <f ca="1">INDEX(D37:D39,ROUNDUP(RAND()*(3-0),0))-B43</f>
-        <v>201.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>137</v>
-      </c>
       <c r="B48" s="3">
-        <f ca="1">INDEX(D37:D39,ROUNDUP(RAND()*(3-0),0))-F43</f>
-        <v>226.6</v>
+        <f ca="1">INDEX(B40:B42,ROUNDUP(RAND()*(3-0),0))-D45</f>
+        <v>-1.2000000000000455</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B49" s="3">
-        <f ca="1">INDEX(F37:F39,ROUNDUP(RAND()*(3-0),0))-B42</f>
-        <v>1267.91923713302</v>
+        <f ca="1">INDEX(B40:B42,ROUNDUP(RAND()*(3-0),0))-F45</f>
+        <v>134.80000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="3">
+        <f ca="1">INDEX(D40:D42,ROUNDUP(RAND()*(3-0),0))-B46</f>
+        <v>1118.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="3">
+        <f ca="1">INDEX(D40:D42,ROUNDUP(RAND()*(3-0),0))-F46</f>
+        <v>1117.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="3">
+        <f ca="1">INDEX(F40:F42,ROUNDUP(RAND()*(3-0),0))-B45</f>
+        <v>712.55670070774977</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="3">
-        <f ca="1">INDEX(F37:F39,ROUNDUP(RAND()*(3-0),0))-D42</f>
-        <v>1213.71923713302</v>
+      <c r="B53" s="3">
+        <f ca="1">INDEX(F40:F42,ROUNDUP(RAND()*(3-0),0))-D45</f>
+        <v>1264.2344286809478</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A35:G35"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3899,41 +3906,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
         <f ca="1">人物基本属性!B17+人物基本属性!B28</f>
-        <v>617.5</v>
+        <v>662.5</v>
       </c>
       <c r="C2">
         <f ca="1">人物基本属性!D17+人物基本属性!D28</f>
-        <v>534.36</v>
+        <v>527.36</v>
       </c>
       <c r="D2">
         <f ca="1">人物基本属性!F17+人物基本属性!F28</f>
-        <v>760.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>763.66000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3">
         <f ca="1">人物基本属性!B18+人物基本属性!C28</f>
-        <v>377.5</v>
+        <v>397.5</v>
       </c>
       <c r="C3">
         <f ca="1">人物基本属性!D18+人物基本属性!E28</f>
-        <v>363.12</v>
+        <v>338.12</v>
       </c>
       <c r="D3">
         <f ca="1">人物基本属性!F18+人物基本属性!G28</f>
-        <v>449.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>415.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -3947,127 +3954,127 @@
       </c>
       <c r="D4">
         <f>人物基本属性!F19</f>
-        <v>282.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>113</v>
       </c>
       <c r="B5">
         <f ca="1">人物基本属性!B20+人物基本属性!C32</f>
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="C5">
         <f ca="1">人物基本属性!D20+人物基本属性!E32</f>
-        <v>654</v>
+        <v>785.5</v>
       </c>
       <c r="D5">
         <f ca="1">人物基本属性!F20+人物基本属性!G32</f>
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>114</v>
       </c>
       <c r="B6">
         <f ca="1">人物基本属性!B21+人物基本属性!B30</f>
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C6">
         <f ca="1">人物基本属性!D21+人物基本属性!D30</f>
-        <v>356.9</v>
+        <v>365.4</v>
       </c>
       <c r="D6">
         <f>人物基本属性!F21+人物基本属性!G30</f>
-        <v>220.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>234.29999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>115</v>
       </c>
       <c r="B7">
         <f ca="1">人物基本属性!B22+人物基本属性!C33*0.7</f>
-        <v>168.9</v>
+        <v>171</v>
       </c>
       <c r="C7">
         <f ca="1">人物基本属性!D22+人物基本属性!E33*0.7</f>
-        <v>167.3</v>
+        <v>142.1</v>
       </c>
       <c r="D7">
         <f ca="1">人物基本属性!F22+人物基本属性!G33*0.7</f>
-        <v>174.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>116</v>
       </c>
       <c r="B8">
         <f ca="1">人物基本属性!B23+人物基本属性!B29+人物基本属性!B31+人物基本属性!B32+人物基本属性!B33</f>
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="C8">
         <f ca="1">人物基本属性!D23+人物基本属性!D29+人物基本属性!D31+人物基本属性!D32+人物基本属性!D33</f>
-        <v>566.2</v>
+        <v>575.20000000000005</v>
       </c>
       <c r="D8">
         <f ca="1">人物基本属性!F23+人物基本属性!F29+人物基本属性!F31+人物基本属性!F32+人物基本属性!F33</f>
-        <v>448.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>425.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>117</v>
       </c>
       <c r="B9">
         <f ca="1">人物基本属性!B24+人物基本属性!C33</f>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C9">
         <f ca="1">人物基本属性!D24+人物基本属性!E33</f>
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D9">
         <f ca="1">人物基本属性!F24+人物基本属性!G33</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>140</v>
       </c>
       <c r="B11">
         <f ca="1">INT(B2/3+B3+RAND()*((人物基本属性!B3+人物基本属性!B10*人物基本属性!C3)*5%-0))</f>
-        <v>583</v>
+        <v>624</v>
       </c>
       <c r="C11">
         <f ca="1">INT(C2/3+C3+RAND()*((人物基本属性!D3+人物基本属性!D10*人物基本属性!E3)*5%-0))</f>
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="D11">
         <f ca="1">INT(D2/3+D3+RAND()*((人物基本属性!F3+人物基本属性!F10*人物基本属性!G3)*5%-0))</f>
-        <v>707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>124</v>
       </c>
@@ -4084,7 +4091,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -4115,15 +4122,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4243,7 +4250,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -4251,7 +4258,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -4259,7 +4266,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -4275,7 +4282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -4283,7 +4290,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -4292,25 +4299,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7 J2:J7"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="10.375"/>
@@ -4348,16 +4355,16 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:2">
@@ -4366,7 +4373,7 @@
       </c>
       <c r="B9">
         <f ca="1">(331.5+人物基本属性!B28)/3+134.5+人物基本属性!C28+150*5%-225-人物基本属性!B29-人物基本属性!B31-人物基本属性!B32-人物基本属性!B33</f>
-        <v>73.8333333333334</v>
+        <v>144.83333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4375,7 +4382,7 @@
       </c>
       <c r="B10">
         <f ca="1">(((331.5+人物基本属性!S28+(80*12))/3+134.5+人物基本属性!C28+(150*5%)-225)*230%)</f>
-        <v>1358.15</v>
+        <v>1404.1499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4384,7 +4391,7 @@
       </c>
       <c r="B11">
         <f>240+80+134.5*9%+80*1.1-240</f>
-        <v>180.105</v>
+        <v>180.10499999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4397,7 +4404,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
